--- a/2018_bisc_coral_cover.xlsx
+++ b/2018_bisc_coral_cover.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="0" windowWidth="18600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -60,15 +60,9 @@
     <t>black_spot</t>
   </si>
   <si>
-    <t>field_number</t>
-  </si>
-  <si>
     <t>percent_ind_bleached</t>
   </si>
   <si>
-    <t>percent_disease</t>
-  </si>
-  <si>
     <t>paling_coral</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t xml:space="preserve">1,1 </t>
-  </si>
-  <si>
     <t>09_05_2018</t>
   </si>
   <si>
@@ -91,6 +82,15 @@
   </si>
   <si>
     <t>percent_total_bleached</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>percent_ind_disease</t>
+  </si>
+  <si>
+    <t>percent_total_disease</t>
   </si>
 </sst>
 </file>
@@ -141,12 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -490,39 +491,42 @@
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -545,19 +549,22 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="H2" s="2">
+        <v>0</v>
       </c>
       <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="J2">
-        <f>I2</f>
+      <c r="K2">
+        <f>J2</f>
         <v>0.375</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -580,19 +587,22 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>1</v>
+      <c r="H3" s="2">
+        <v>0</v>
       </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <f>5/9</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="J3">
-        <f>I3</f>
+      <c r="K3">
+        <f>J3</f>
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -615,19 +625,22 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>1</v>
+      <c r="H4" s="2">
+        <v>0</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <f>2/14</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="J4">
-        <f>I4</f>
+      <c r="K4">
+        <f>J4</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -650,19 +663,22 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>1</v>
+      <c r="H5" s="2">
+        <v>0</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J5">
-        <f>I5</f>
+      <c r="K5">
+        <f>J5</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -685,19 +701,22 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>1</v>
+      <c r="H6" s="2">
+        <v>0</v>
       </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <f>3/3</f>
         <v>1</v>
       </c>
-      <c r="J6">
-        <f>I6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <f>J6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -708,28 +727,31 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -740,28 +762,31 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -772,28 +797,31 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -814,21 +842,25 @@
         <v>11</v>
       </c>
       <c r="G10">
-        <v>0.3</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
+        <f>0.3/9</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.111111111</v>
       </c>
       <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <f>6/11</f>
         <v>0.54545454545454541</v>
       </c>
-      <c r="J10">
-        <f>I10</f>
+      <c r="K10">
+        <f>J10</f>
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -851,19 +883,22 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>1</v>
+      <c r="H11" s="2">
+        <v>0</v>
       </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="J11">
-        <f>I11</f>
+      <c r="K11">
+        <f>J11</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -874,28 +909,31 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -918,19 +956,22 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>1</v>
+      <c r="H13" s="2">
+        <v>0</v>
       </c>
       <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <f>3/5</f>
         <v>0.6</v>
       </c>
-      <c r="J13">
-        <f>I13</f>
+      <c r="K13">
+        <f>J13</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -955,19 +996,22 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>1</v>
+      <c r="H14" s="2">
+        <v>0</v>
       </c>
       <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <f>5/15</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J14">
-        <f>I14+E14</f>
+      <c r="K14">
+        <f>J14+E14</f>
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -990,19 +1034,22 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15">
-        <v>1</v>
+      <c r="H15" s="2">
+        <v>0</v>
       </c>
       <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <f>2/11</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="J15">
-        <f>I15</f>
+      <c r="K15">
+        <f>J15</f>
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1027,19 +1074,22 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16">
-        <v>1</v>
+      <c r="H16" s="2">
+        <v>0</v>
       </c>
       <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
         <f>2/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="J16">
-        <f>I16+E16</f>
+      <c r="K16">
+        <f>J16+E16</f>
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1062,7 +1112,7 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>0</v>
       </c>
       <c r="I17">
@@ -1071,8 +1121,11 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1097,19 +1150,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18">
-        <v>1</v>
+      <c r="H18" s="2">
+        <v>0</v>
       </c>
       <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <f>3/15</f>
         <v>0.2</v>
       </c>
-      <c r="J18">
-        <f>I18+E18</f>
+      <c r="K18">
+        <f>J18+E18</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1134,19 +1190,22 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>1</v>
+      <c r="H19" s="2">
+        <v>0</v>
       </c>
       <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J19">
-        <f>I19+E19</f>
+      <c r="K19">
+        <f>J19+E19</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1171,19 +1230,22 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20">
-        <v>1</v>
+      <c r="H20" s="2">
+        <v>0</v>
       </c>
       <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
         <f>1/11</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="J20">
-        <f>I20+E20</f>
+      <c r="K20">
+        <f>J20+E20</f>
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1194,28 +1256,31 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1240,19 +1305,22 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>1</v>
+      <c r="H22" s="2">
+        <v>0</v>
       </c>
       <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <f>5/22</f>
         <v>0.22727272727272727</v>
       </c>
-      <c r="J22">
-        <f>I22+E22</f>
+      <c r="K22">
+        <f>J22+E22</f>
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1277,18 +1345,21 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="2">
         <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <f>E23</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1313,19 +1384,22 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24">
-        <v>1</v>
+      <c r="H24" s="2">
+        <v>0</v>
       </c>
       <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
         <f>2/13</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="J24">
-        <f>I24+E24</f>
+      <c r="K24">
+        <f>J24+E24</f>
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1350,18 +1424,21 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <f>E25</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1384,7 +1461,7 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26">
@@ -1393,8 +1470,11 @@
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1419,18 +1499,21 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <f>E27</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
@@ -1453,19 +1536,22 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>1</v>
+      <c r="H28" s="2">
+        <v>0</v>
       </c>
       <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
         <f>4/19</f>
         <v>0.21052631578947367</v>
       </c>
-      <c r="J28">
-        <f>I28</f>
+      <c r="K28">
+        <f>J28</f>
         <v>0.21052631578947367</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1488,17 +1574,18 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
+      <c r="H29" s="2"/>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1523,19 +1610,22 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>1</v>
+      <c r="H30" s="2">
+        <v>0</v>
       </c>
       <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="J30">
-        <f>I30+E30</f>
+      <c r="K30">
+        <f>J30+E30</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1560,18 +1650,21 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <f>E31</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1594,20 +1687,24 @@
         <v>12</v>
       </c>
       <c r="G32">
-        <v>0.05</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
+        <f>0.05/4</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.25</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <f>E32</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1628,20 +1725,24 @@
         <v>12</v>
       </c>
       <c r="G33">
-        <v>0.05</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
+        <f>0.05/13</f>
+        <v>3.8461538461538464E-3</v>
+      </c>
+      <c r="H33" s="2">
+        <v>7.6923077000000006E-2</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1664,19 +1765,22 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34">
-        <v>1</v>
+      <c r="H34" s="2">
+        <v>0</v>
       </c>
       <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
         <f>7/24</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="J34">
-        <f>I34</f>
+      <c r="K34">
+        <f>J34</f>
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1698,24 +1802,28 @@
       <c r="F35" t="s">
         <v>12</v>
       </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
+      <c r="G35">
+        <f>(0.01+0.01)/30</f>
+        <v>6.6666666666666664E-4</v>
+      </c>
+      <c r="H35" s="2">
+        <v>6.6666666999999999E-2</v>
       </c>
       <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
         <f>2/30</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="J35">
-        <f>I35+E35</f>
+      <c r="K35">
+        <f>J35+E35</f>
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B36">
         <v>1804</v>
@@ -1736,21 +1844,24 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36">
-        <v>1</v>
+      <c r="H36" s="2">
+        <v>0</v>
       </c>
       <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="J36">
-        <f>I36</f>
+      <c r="K36">
+        <f>J36</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B37">
         <v>1598</v>
@@ -1769,23 +1880,27 @@
         <v>12</v>
       </c>
       <c r="G37">
-        <v>0.2</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
+        <f>0.2/10</f>
+        <v>0.02</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.1</v>
       </c>
       <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
         <f>1/10</f>
         <v>0.1</v>
       </c>
-      <c r="J37">
-        <f>I37</f>
+      <c r="K37">
+        <f>J37</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B38">
         <v>1594</v>
@@ -1806,22 +1921,26 @@
         <v>12</v>
       </c>
       <c r="G38">
-        <v>0.01</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
+        <f>0.01/7</f>
+        <v>1.4285714285714286E-3</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.14285714299999999</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
         <f>E38</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B39">
         <v>1095</v>
@@ -1842,23 +1961,27 @@
         <v>12</v>
       </c>
       <c r="G39">
-        <v>0.02</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
+        <f>0.02/14</f>
+        <v>1.4285714285714286E-3</v>
+      </c>
+      <c r="H39" s="2">
+        <v>7.1428570999999996E-2</v>
       </c>
       <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
         <f>7/14</f>
         <v>0.5</v>
       </c>
-      <c r="J39">
-        <f>E39+I39</f>
+      <c r="K39">
+        <f>E39+J39</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <v>1101</v>
@@ -1881,15 +2004,18 @@
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40">
-        <v>1</v>
+      <c r="H40" s="2">
+        <v>0</v>
       </c>
       <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="J40">
-        <f>I40+E40</f>
+      <c r="K40">
+        <f>J40+E40</f>
         <v>0.375</v>
       </c>
     </row>

--- a/2018_bisc_coral_cover.xlsx
+++ b/2018_bisc_coral_cover.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="25">
   <si>
     <t>date</t>
   </si>
@@ -66,9 +66,6 @@
     <t>paling_coral</t>
   </si>
   <si>
-    <t>percent_paling</t>
-  </si>
-  <si>
     <t>percent_p_b</t>
   </si>
   <si>
@@ -81,16 +78,22 @@
     <t>09_12_2018</t>
   </si>
   <si>
+    <t>field_number</t>
+  </si>
+  <si>
+    <t>percent_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1 </t>
+  </si>
+  <si>
+    <t>09_18_2018</t>
+  </si>
+  <si>
     <t>percent_total_bleached</t>
   </si>
   <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>percent_ind_disease</t>
-  </si>
-  <si>
-    <t>percent_total_disease</t>
+    <t>percent_total_paling</t>
   </si>
 </sst>
 </file>
@@ -141,13 +144,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -491,42 +493,39 @@
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -549,22 +548,19 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
+      <c r="H2">
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="K2">
-        <f>J2</f>
+      <c r="J2">
+        <f>I2</f>
         <v>0.375</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -587,22 +583,19 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
+      <c r="H3">
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
         <f>5/9</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="K3">
-        <f>J3</f>
+      <c r="J3">
+        <f>I3</f>
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -625,22 +618,19 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
+      <c r="H4">
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
         <f>2/14</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="K4">
-        <f>J4</f>
+      <c r="J4">
+        <f>I4</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -663,22 +653,19 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
+      <c r="H5">
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K5">
-        <f>J5</f>
+      <c r="J5">
+        <f>I5</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -701,22 +688,19 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
+      <c r="H6">
+        <v>1</v>
       </c>
       <c r="I6">
+        <f>3/3</f>
         <v>1</v>
       </c>
       <c r="J6">
-        <f>3/3</f>
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <f>J6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <f>I6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -727,31 +711,28 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -762,31 +743,28 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -797,31 +775,28 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -842,25 +817,21 @@
         <v>11</v>
       </c>
       <c r="G10">
-        <f>0.3/9</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.111111111</v>
+        <v>0.3</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
         <f>6/11</f>
         <v>0.54545454545454541</v>
       </c>
-      <c r="K10">
-        <f>J10</f>
+      <c r="J10">
+        <f>I10</f>
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -883,22 +854,19 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
+      <c r="H11">
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="K11">
-        <f>J11</f>
+      <c r="J11">
+        <f>I11</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -909,31 +877,28 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -956,22 +921,19 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" s="2">
-        <v>0</v>
+      <c r="H13">
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
         <f>3/5</f>
         <v>0.6</v>
       </c>
-      <c r="K13">
-        <f>J13</f>
+      <c r="J13">
+        <f>I13</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -996,22 +958,19 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="2">
-        <v>0</v>
+      <c r="H14">
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
         <f>5/15</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K14">
-        <f>J14+E14</f>
+      <c r="J14">
+        <f>I14+E14</f>
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1034,22 +993,19 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" s="2">
-        <v>0</v>
+      <c r="H15">
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
         <f>2/11</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="K15">
-        <f>J15</f>
+      <c r="J15">
+        <f>I15</f>
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1074,22 +1030,19 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" s="2">
-        <v>0</v>
+      <c r="H16">
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
         <f>2/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="K16">
-        <f>J16+E16</f>
+      <c r="J16">
+        <f>I16+E16</f>
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1112,7 +1065,7 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
@@ -1121,11 +1074,8 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1150,22 +1100,19 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" s="2">
-        <v>0</v>
+      <c r="H18">
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
         <f>3/15</f>
         <v>0.2</v>
       </c>
-      <c r="K18">
-        <f>J18+E18</f>
+      <c r="J18">
+        <f>I18+E18</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1190,22 +1137,19 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" s="2">
-        <v>0</v>
+      <c r="H19">
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K19">
-        <f>J19+E19</f>
+      <c r="J19">
+        <f>I19+E19</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1230,22 +1174,19 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" s="2">
-        <v>0</v>
+      <c r="H20">
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
         <f>1/11</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="K20">
-        <f>J20+E20</f>
+      <c r="J20">
+        <f>I20+E20</f>
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1256,31 +1197,28 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1292,7 +1230,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="D22">
-        <f>(1+0.9 +1)/22</f>
+        <f>(1+ 0.9+1)/22</f>
         <v>0.13181818181818181</v>
       </c>
       <c r="E22">
@@ -1305,22 +1243,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22" s="2">
-        <v>0</v>
+      <c r="H22">
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
         <f>5/22</f>
         <v>0.22727272727272727</v>
       </c>
-      <c r="K22">
-        <f>J22+E22</f>
+      <c r="J22">
+        <f>I22+E22</f>
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1345,21 +1280,18 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
         <f>E23</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1371,8 +1303,8 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="D24">
-        <f>(0.02+0.02+0.1+0.98)/13</f>
-        <v>8.6153846153846164E-2</v>
+        <f>(0.02+0.02+10+0.98)/13</f>
+        <v>0.84769230769230763</v>
       </c>
       <c r="E24">
         <f>4/13</f>
@@ -1384,22 +1316,19 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" s="2">
-        <v>0</v>
+      <c r="H24">
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
         <f>2/13</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="K24">
-        <f>J24+E24</f>
+      <c r="J24">
+        <f>I24+E24</f>
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1424,21 +1353,18 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
         <f>E25</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1387,7 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
@@ -1470,11 +1396,8 @@
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1499,21 +1422,18 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
         <f>E27</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
@@ -1536,22 +1456,19 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28" s="2">
-        <v>0</v>
+      <c r="H28">
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
         <f>4/19</f>
         <v>0.21052631578947367</v>
       </c>
-      <c r="K28">
-        <f>J28</f>
+      <c r="J28">
+        <f>I28</f>
         <v>0.21052631578947367</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1574,18 +1491,17 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29">
+        <v>0</v>
+      </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1610,22 +1526,19 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30" s="2">
-        <v>0</v>
+      <c r="H30">
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="K30">
-        <f>J30+E30</f>
+      <c r="J30">
+        <f>I30+E30</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1637,8 +1550,8 @@
         <v>0.02</v>
       </c>
       <c r="D31">
-        <f>(0.1+0.05+0.03+0.1)/5</f>
-        <v>5.6000000000000008E-2</v>
+        <f>(0.1+0.05+0.03+10)/5</f>
+        <v>2.036</v>
       </c>
       <c r="E31">
         <f>4/5</f>
@@ -1650,21 +1563,18 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
         <f>E31</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1687,24 +1597,20 @@
         <v>12</v>
       </c>
       <c r="G32">
-        <f>0.05/4</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0.25</v>
+        <v>0.05</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
         <f>E32</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1725,24 +1631,20 @@
         <v>12</v>
       </c>
       <c r="G33">
-        <f>0.05/13</f>
-        <v>3.8461538461538464E-3</v>
-      </c>
-      <c r="H33" s="2">
-        <v>7.6923077000000006E-2</v>
+        <v>0.05</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1765,22 +1667,19 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34" s="2">
-        <v>0</v>
+      <c r="H34">
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
         <f>7/24</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="K34">
-        <f>J34</f>
+      <c r="J34">
+        <f>I34</f>
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1792,7 +1691,7 @@
         <v>0.12</v>
       </c>
       <c r="D35">
-        <f>(1+0.05+0.02)/30</f>
+        <f>(1+ 0.05+ 0.02)/30</f>
         <v>3.5666666666666666E-2</v>
       </c>
       <c r="E35">
@@ -1802,28 +1701,24 @@
       <c r="F35" t="s">
         <v>12</v>
       </c>
-      <c r="G35">
-        <f>(0.01+0.01)/30</f>
-        <v>6.6666666666666664E-4</v>
-      </c>
-      <c r="H35" s="2">
-        <v>6.6666666999999999E-2</v>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
         <f>2/30</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K35">
-        <f>J35+E35</f>
+      <c r="J35">
+        <f>I35+E35</f>
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36">
         <v>1804</v>
@@ -1844,24 +1739,21 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36" s="2">
-        <v>0</v>
+      <c r="H36">
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="K36">
-        <f>J36</f>
+      <c r="J36">
+        <f>I36</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37">
         <v>1598</v>
@@ -1880,27 +1772,23 @@
         <v>12</v>
       </c>
       <c r="G37">
-        <f>0.2/10</f>
-        <v>0.02</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
         <f>1/10</f>
         <v>0.1</v>
       </c>
-      <c r="K37">
-        <f>J37</f>
+      <c r="J37">
+        <f>I37</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38">
         <v>1594</v>
@@ -1921,26 +1809,22 @@
         <v>12</v>
       </c>
       <c r="G38">
-        <f>0.01/7</f>
-        <v>1.4285714285714286E-3</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0.14285714299999999</v>
+        <v>0.01</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
         <f>E38</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>1095</v>
@@ -1950,8 +1834,8 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="D39">
-        <f>1/14</f>
-        <v>7.1428571428571425E-2</v>
+        <f>0.01/14</f>
+        <v>7.1428571428571429E-4</v>
       </c>
       <c r="E39">
         <f>1/14</f>
@@ -1961,27 +1845,23 @@
         <v>12</v>
       </c>
       <c r="G39">
-        <f>0.02/14</f>
-        <v>1.4285714285714286E-3</v>
-      </c>
-      <c r="H39" s="2">
-        <v>7.1428570999999996E-2</v>
+        <v>0.02</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
         <f>7/14</f>
         <v>0.5</v>
       </c>
-      <c r="K39">
-        <f>E39+J39</f>
+      <c r="J39">
+        <f>E39+I39</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <v>1101</v>
@@ -2004,19 +1884,156 @@
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40" s="2">
-        <v>0</v>
+      <c r="H40">
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="K40">
-        <f>J40+E40</f>
+      <c r="J40">
+        <f>I40+E40</f>
         <v>0.375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>1364</v>
+      </c>
+      <c r="C41">
+        <f>5/250</f>
+        <v>0.02</v>
+      </c>
+      <c r="D41">
+        <f>(0.4+0.4+0.4)/5</f>
+        <v>0.24000000000000005</v>
+      </c>
+      <c r="E41">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="J41">
+        <f>I41+E41</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>1863</v>
+      </c>
+      <c r="C42">
+        <f>3/250</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="D42">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E42">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f>E42+I42</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>1169</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>1093</v>
+      </c>
+      <c r="C44">
+        <f>1/250</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <f>I44+E44</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/2018_bisc_coral_cover.xlsx
+++ b/2018_bisc_coral_cover.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="2240" yWindow="20" windowWidth="23280" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>percent_total_paling</t>
+  </si>
+  <si>
+    <t>species_richness</t>
   </si>
 </sst>
 </file>
@@ -149,7 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -493,7 +496,7 @@
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,8 +527,11 @@
       <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -559,8 +565,11 @@
         <f>I2</f>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>0.68373890000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -594,8 +603,11 @@
         <f>I3</f>
         <v>0.55555555555555558</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>0.56233509999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -629,8 +641,11 @@
         <f>I4</f>
         <v>0.14285714285714285</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>1.1973400999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -664,8 +679,11 @@
         <f>I5</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>1.0986123000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -699,8 +717,11 @@
         <f>I6</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>0.63651420000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -731,8 +752,11 @@
       <c r="J7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -763,8 +787,11 @@
       <c r="J8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -795,8 +822,11 @@
       <c r="J9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -830,8 +860,11 @@
         <f>I10</f>
         <v>0.54545454545454541</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>1.3592367000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -865,8 +898,11 @@
         <f>I11</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -897,8 +933,11 @@
       <c r="J12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>0.95027050000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -932,8 +971,11 @@
         <f>I13</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>1.2527630000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -969,8 +1011,11 @@
         <f>I14+E14</f>
         <v>0.39999999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>1.5941666999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1004,8 +1049,11 @@
         <f>I15</f>
         <v>0.18181818181818182</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>1.4681398999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1041,8 +1089,11 @@
         <f>I16+E16</f>
         <v>0.44444444444444442</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>1.0986123000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1074,8 +1125,11 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>1.3624475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1111,8 +1165,11 @@
         <f>I18+E18</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>1.3296612999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1148,8 +1205,11 @@
         <f>I19+E19</f>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>1.1622254999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1185,8 +1245,11 @@
         <f>I20+E20</f>
         <v>0.18181818181818182</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1217,8 +1280,11 @@
       <c r="J21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>1.7665295999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1254,8 +1320,11 @@
         <f>I22+E22</f>
         <v>0.36363636363636365</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>1.0397208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1290,8 +1359,11 @@
         <f>E23</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>1.6260207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1327,8 +1399,11 @@
         <f>I24+E24</f>
         <v>0.46153846153846156</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>1.332179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1363,8 +1438,11 @@
         <f>E25</f>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0.69314719999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1396,8 +1474,11 @@
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0.69314719999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1432,8 +1513,11 @@
         <f>E27</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>1.7325520999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
@@ -1467,8 +1551,11 @@
         <f>I28</f>
         <v>0.21052631578947367</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1500,8 +1587,11 @@
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>1.0397208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1537,8 +1627,11 @@
         <f>I30+E30</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>1.6094379000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1573,8 +1666,11 @@
         <f>E31</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0.56233509999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1609,8 +1705,11 @@
         <f>E32</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>1.6715952999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1643,8 +1742,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>1.4780929</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1678,8 +1780,11 @@
         <f>I34</f>
         <v>0.29166666666666669</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>1.1757268000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1715,8 +1820,11 @@
         <f>I35+E35</f>
         <v>0.16666666666666669</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>1.1757268000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1750,8 +1858,11 @@
         <f>I36</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>1.3862943999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1785,8 +1896,11 @@
         <f>I37</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>0.95569990000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1821,8 +1935,11 @@
         <f>E38</f>
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>0.89533269999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1858,8 +1975,11 @@
         <f>E39+I39</f>
         <v>0.5714285714285714</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>1.5595812</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1895,8 +2015,11 @@
         <f>I40+E40</f>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>0.95027050000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -1932,8 +2055,11 @@
         <f>I41+E41</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>0.63651420000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -1968,8 +2094,11 @@
         <f>E42+I42</f>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2000,8 +2129,11 @@
       <c r="J43" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2034,6 +2166,9 @@
       <c r="J44">
         <f>I44+E44</f>
         <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
